--- a/data/trans_orig/P70D_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7009</v>
+        <v>7356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21534</v>
+        <v>21520</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07937382207884869</v>
+        <v>0.07937382207884867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04390732135893841</v>
+        <v>0.04607945529949534</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1348953929674777</v>
+        <v>0.1348108155061828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -762,19 +762,19 @@
         <v>13323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8179</v>
+        <v>8262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20109</v>
+        <v>20365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1603586895164158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09844404889185719</v>
+        <v>0.0994406695380161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2420406838948901</v>
+        <v>0.2451139905178668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -783,19 +783,19 @@
         <v>25994</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18277</v>
+        <v>17654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35965</v>
+        <v>36415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1070952250889487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07530222531733161</v>
+        <v>0.07273606813427494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1481786673877401</v>
+        <v>0.1500291138523643</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>146963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138100</v>
+        <v>138114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152625</v>
+        <v>152278</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9206261779211514</v>
+        <v>0.9206261779211512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.865104607032523</v>
+        <v>0.8651891844938171</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9560926786410615</v>
+        <v>0.9539205447005046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>95</v>
@@ -833,19 +833,19 @@
         <v>69760</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62974</v>
+        <v>62718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74904</v>
+        <v>74821</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.839641310483584</v>
+        <v>0.8396413104835843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7579593161051097</v>
+        <v>0.7548860094821331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9015559511081427</v>
+        <v>0.9005593304619837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>219</v>
@@ -854,19 +854,19 @@
         <v>216723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>206752</v>
+        <v>206302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224440</v>
+        <v>225063</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8929047749110514</v>
+        <v>0.8929047749110512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8518213326122596</v>
+        <v>0.8499708861476357</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9246977746826684</v>
+        <v>0.927263931865725</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>49498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37792</v>
+        <v>36860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63928</v>
+        <v>64284</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03921145241057734</v>
+        <v>0.03921145241057735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02993870101836779</v>
+        <v>0.02920034137773501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0506426974887964</v>
+        <v>0.05092508482635873</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -979,19 +979,19 @@
         <v>51835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39599</v>
+        <v>39913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65088</v>
+        <v>65250</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05547234579869497</v>
+        <v>0.05547234579869498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04237785302313928</v>
+        <v>0.04271408458829995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06965594567332024</v>
+        <v>0.06982974094617449</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -1000,19 +1000,19 @@
         <v>101332</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84139</v>
+        <v>82117</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121538</v>
+        <v>121064</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04612828894461231</v>
+        <v>0.0461282889446123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03830155913789446</v>
+        <v>0.03738098283550949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05532635748923525</v>
+        <v>0.055110615457899</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1212827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1198397</v>
+        <v>1198041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1224533</v>
+        <v>1225465</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9607885475894227</v>
+        <v>0.9607885475894229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9493573025112036</v>
+        <v>0.9490749151736412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9700612989816321</v>
+        <v>0.9707996586222649</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1174</v>
@@ -1050,19 +1050,19 @@
         <v>882587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>869334</v>
+        <v>869172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>894823</v>
+        <v>894509</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9445276542013049</v>
+        <v>0.944527654201305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9303440543266797</v>
+        <v>0.9301702590538256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9576221469768607</v>
+        <v>0.9572859154116999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2204</v>
@@ -1071,19 +1071,19 @@
         <v>2095416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2075210</v>
+        <v>2075684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2112609</v>
+        <v>2114631</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9538717110553877</v>
+        <v>0.9538717110553876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9446736425107649</v>
+        <v>0.9448893845421015</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9616984408621058</v>
+        <v>0.9626190171644905</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>18718</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9959</v>
+        <v>10078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31701</v>
+        <v>31750</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03879867358695569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02064204197357023</v>
+        <v>0.02088914018026122</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06570938345209798</v>
+        <v>0.06581124742561743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1196,19 +1196,19 @@
         <v>21923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14595</v>
+        <v>15363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30169</v>
+        <v>32298</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04590313504293555</v>
+        <v>0.04590313504293554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03055985618378313</v>
+        <v>0.03216804782335062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06316887788716971</v>
+        <v>0.06762780203226085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -1217,19 +1217,19 @@
         <v>40641</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29520</v>
+        <v>28642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57326</v>
+        <v>56724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04233294871086531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03074899534557821</v>
+        <v>0.0298349623900009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05971275447355576</v>
+        <v>0.05908579870257497</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>463720</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450737</v>
+        <v>450688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472479</v>
+        <v>472360</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9612013264130443</v>
+        <v>0.9612013264130442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.934290616547902</v>
+        <v>0.9341887525743824</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9793579580264297</v>
+        <v>0.9791108598197387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -1267,19 +1267,19 @@
         <v>455662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>447416</v>
+        <v>445287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>462990</v>
+        <v>462222</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9540968649570645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9368311221128304</v>
+        <v>0.9323721979677392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.969440143816217</v>
+        <v>0.9678319521766495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1024</v>
@@ -1288,19 +1288,19 @@
         <v>919382</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>902697</v>
+        <v>903299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>930503</v>
+        <v>931381</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9576670512891345</v>
+        <v>0.9576670512891347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.940287245526444</v>
+        <v>0.940914201297425</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9692510046544217</v>
+        <v>0.9701650376099991</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>80886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64379</v>
+        <v>64644</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101586</v>
+        <v>101392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04247345358508715</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03380525417958815</v>
+        <v>0.03394478871415911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05334288827591865</v>
+        <v>0.05324106378903737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1413,19 +1413,19 @@
         <v>87080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71912</v>
+        <v>72378</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106057</v>
+        <v>104149</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05824418198653267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04809850970967151</v>
+        <v>0.04841018883935012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07093681427854703</v>
+        <v>0.06966047061904371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -1434,19 +1434,19 @@
         <v>167967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145799</v>
+        <v>144969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195986</v>
+        <v>193412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04940940081713848</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04288844972063288</v>
+        <v>0.04264429118184985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05765158944951639</v>
+        <v>0.05689440645687017</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1823511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1802811</v>
+        <v>1803005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1840018</v>
+        <v>1839753</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9575265464149127</v>
+        <v>0.9575265464149129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9466571117240814</v>
+        <v>0.9467589362109633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9661947458204119</v>
+        <v>0.966055211285841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1882</v>
@@ -1484,19 +1484,19 @@
         <v>1408011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1389034</v>
+        <v>1390942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1423179</v>
+        <v>1422713</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9417558180134673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9290631857214529</v>
+        <v>0.9303395293809563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9519014902903284</v>
+        <v>0.9515898111606494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3447</v>
@@ -1505,19 +1505,19 @@
         <v>3231521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3203502</v>
+        <v>3206076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3253689</v>
+        <v>3254519</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9505905991828615</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9423484105504832</v>
+        <v>0.9431055935431298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9571115502793666</v>
+        <v>0.9573557088181501</v>
       </c>
     </row>
     <row r="15">
